--- a/spyMinigame.xlsx
+++ b/spyMinigame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A473FE88-6FE8-4854-8323-BF7A61D7BBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238810FF-B509-408D-9878-CEFEB6EE8402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DA83C37-0D59-4D1A-90AC-B5901984EA55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,9 +74,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Four keyboard direction keys(→,←,↑,↓) are output to the UI in a random order,
-and the mini-game can be cleared by pressing the direction keys in that order within the limited time. 
-There are a total of 3 rounds, and if they fail, the order of the direction keys changes and the round proceeds again.</t>
+    <t>connectingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordDigits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해킹 서버 연결 시간(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호 자릿수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get 3 letters of the password before each three missions.
+Interact and wait the time for connecting to server.
+Then insert three letters you remembered.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +517,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,10 +526,12 @@
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="5" width="23" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.625" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="1"/>
+    <col min="7" max="7" width="25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="1" customWidth="1"/>
+    <col min="9" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,22 +548,40 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -560,12 +596,18 @@
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="99" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
@@ -580,7 +622,13 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
         <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/spyMinigame.xlsx
+++ b/spyMinigame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238810FF-B509-408D-9878-CEFEB6EE8402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11BF46-D66A-4025-B567-D3543A320B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DA83C37-0D59-4D1A-90AC-B5901984EA55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,7 +96,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미사용</t>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +517,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,15 +562,9 @@
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>11</v>
@@ -613,19 +607,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
         <v>3</v>
